--- a/src/test/data/TestData.xlsx
+++ b/src/test/data/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\IdeaProjects\Selenium-Starting\src\test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C56CAB3-EDB7-4D60-8EA3-812B8070CEBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFCE46E-F1F4-44D9-91A5-46AA59AEDCFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{46662BA9-FFEC-49A9-8643-B8D3FFCF2D4B}"/>
   </bookViews>
@@ -402,7 +402,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
